--- a/templates/QARSF/RSTK-9521-Consigned WO.xlsx
+++ b/templates/QARSF/RSTK-9521-Consigned WO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\QARSF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0315F9-CC58-46D7-915F-77BF00115B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F1590F-F088-4B57-9F50-0271A91AA876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create WO" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="101">
   <si>
     <t>Site</t>
   </si>
@@ -329,6 +329,12 @@
   </si>
   <si>
     <t>Pro-Con1</t>
+  </si>
+  <si>
+    <t>Subcontract Lead Time</t>
+  </si>
+  <si>
+    <t>Allow Accept Flag?</t>
   </si>
 </sst>
 </file>
@@ -677,7 +683,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="A1:G5"/>
+      <selection activeCell="B4" sqref="A1:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -820,10 +826,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{106A5DC5-11A9-463E-B813-87CC78B959DE}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A1:I10"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -869,7 +875,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
         <v>62</v>
@@ -892,7 +898,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -915,7 +921,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
         <v>63</v>
@@ -933,144 +939,6 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.5</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-      <c r="G6">
-        <v>1E-3</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-      <c r="I6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.3</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.5</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>10</v>
-      </c>
-      <c r="G9">
-        <v>1E-3</v>
-      </c>
-      <c r="H9">
-        <v>5</v>
-      </c>
-      <c r="I9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.3</v>
-      </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="I10" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1081,10 +949,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F645892-6DEC-48BA-AEFF-9DA397370813}">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="F1:X4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1094,520 +962,233 @@
     <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="6:24" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
         <v>65</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>66</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>67</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>68</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>69</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>70</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>84</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>71</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>72</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>73</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
         <v>74</v>
       </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
         <v>75</v>
       </c>
-      <c r="N1" t="s">
+      <c r="S1" t="s">
         <v>76</v>
       </c>
-      <c r="O1" t="s">
+      <c r="T1" t="s">
         <v>79</v>
       </c>
-      <c r="P1" t="s">
+      <c r="U1" t="s">
         <v>80</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="V1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="W1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="X1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="6:24" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" t="s">
         <v>83</v>
       </c>
-      <c r="C2">
+      <c r="H2">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="I2" t="s">
         <v>88</v>
       </c>
-      <c r="E2" t="s">
+      <c r="J2" t="s">
         <v>85</v>
       </c>
-      <c r="F2" t="s">
+      <c r="K2" t="s">
         <v>86</v>
       </c>
-      <c r="G2" t="s">
+      <c r="L2" t="s">
         <v>87</v>
       </c>
-      <c r="I2" t="s">
+      <c r="N2" t="s">
         <v>77</v>
       </c>
-      <c r="J2" t="s">
+      <c r="O2" t="s">
         <v>78</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
         <v>77</v>
       </c>
-      <c r="M2" t="s">
+      <c r="R2" t="s">
         <v>78</v>
       </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s">
         <v>77</v>
       </c>
-      <c r="P2" t="s">
+      <c r="U2" t="s">
         <v>82</v>
       </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="V2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="6:24" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" t="s">
         <v>83</v>
       </c>
-      <c r="C3">
+      <c r="H3">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
+      <c r="I3" t="s">
         <v>89</v>
       </c>
-      <c r="E3" t="s">
+      <c r="J3" t="s">
         <v>85</v>
       </c>
-      <c r="F3" t="s">
+      <c r="K3" t="s">
         <v>86</v>
       </c>
-      <c r="G3" t="s">
+      <c r="L3" t="s">
         <v>87</v>
       </c>
-      <c r="I3" t="s">
+      <c r="N3" t="s">
         <v>77</v>
       </c>
-      <c r="J3" t="s">
+      <c r="O3" t="s">
         <v>78</v>
       </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s">
         <v>77</v>
       </c>
-      <c r="M3" t="s">
+      <c r="R3" t="s">
         <v>78</v>
       </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s">
         <v>77</v>
       </c>
-      <c r="P3" t="s">
+      <c r="U3" t="s">
         <v>82</v>
       </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="V3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="6:24" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" t="s">
         <v>83</v>
       </c>
-      <c r="C4">
+      <c r="H4">
         <v>30</v>
       </c>
-      <c r="D4" t="s">
+      <c r="I4" t="s">
         <v>92</v>
       </c>
-      <c r="E4" t="s">
+      <c r="J4" t="s">
         <v>85</v>
       </c>
-      <c r="F4" t="s">
+      <c r="K4" t="s">
         <v>86</v>
       </c>
-      <c r="G4" t="s">
+      <c r="L4" t="s">
         <v>87</v>
       </c>
-      <c r="I4" t="s">
+      <c r="N4" t="s">
         <v>77</v>
       </c>
-      <c r="J4" t="s">
+      <c r="O4" t="s">
         <v>78</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s">
         <v>77</v>
       </c>
-      <c r="M4" t="s">
+      <c r="R4" t="s">
         <v>78</v>
       </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s">
         <v>77</v>
       </c>
-      <c r="P4" t="s">
+      <c r="U4" t="s">
         <v>82</v>
       </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G5" t="s">
-        <v>87</v>
-      </c>
-      <c r="I5" t="s">
-        <v>77</v>
-      </c>
-      <c r="J5" t="s">
-        <v>78</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5" t="s">
-        <v>77</v>
-      </c>
-      <c r="M5" t="s">
-        <v>78</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5" t="s">
-        <v>77</v>
-      </c>
-      <c r="P5" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G6" t="s">
-        <v>87</v>
-      </c>
-      <c r="I6" t="s">
-        <v>77</v>
-      </c>
-      <c r="J6" t="s">
-        <v>78</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6" t="s">
-        <v>77</v>
-      </c>
-      <c r="M6" t="s">
-        <v>78</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6" t="s">
-        <v>77</v>
-      </c>
-      <c r="P6" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I7" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M7" t="s">
-        <v>78</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7" t="s">
-        <v>77</v>
-      </c>
-      <c r="P7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G8" t="s">
-        <v>87</v>
-      </c>
-      <c r="I8" t="s">
-        <v>77</v>
-      </c>
-      <c r="J8" t="s">
-        <v>78</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8" t="s">
-        <v>77</v>
-      </c>
-      <c r="M8" t="s">
-        <v>78</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8" t="s">
-        <v>77</v>
-      </c>
-      <c r="P8" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F9" t="s">
-        <v>86</v>
-      </c>
-      <c r="G9" t="s">
-        <v>87</v>
-      </c>
-      <c r="I9" t="s">
-        <v>77</v>
-      </c>
-      <c r="J9" t="s">
-        <v>78</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9" t="s">
-        <v>77</v>
-      </c>
-      <c r="M9" t="s">
-        <v>78</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9" t="s">
-        <v>77</v>
-      </c>
-      <c r="P9" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" t="s">
-        <v>85</v>
-      </c>
-      <c r="F10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G10" t="s">
-        <v>87</v>
-      </c>
-      <c r="I10" t="s">
-        <v>77</v>
-      </c>
-      <c r="J10" t="s">
-        <v>78</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10" t="s">
-        <v>77</v>
-      </c>
-      <c r="M10" t="s">
-        <v>78</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10" t="s">
-        <v>77</v>
-      </c>
-      <c r="P10" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q10">
+      <c r="V4">
         <v>1</v>
       </c>
     </row>
@@ -2143,7 +1724,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2586,7 +2167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34EC26A-E704-4A02-9DEB-2216FF4892C8}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>

--- a/templates/QARSF/RSTK-9521-Consigned WO.xlsx
+++ b/templates/QARSF/RSTK-9521-Consigned WO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\QARSF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F1590F-F088-4B57-9F50-0271A91AA876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E722F47E-915F-40D7-9C6F-1482163679C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create WO" sheetId="1" r:id="rId1"/>
@@ -682,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="A1:G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -751,7 +751,7 @@
         <v>9</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -772,7 +772,7 @@
         <v>9</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -949,10 +949,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F645892-6DEC-48BA-AEFF-9DA397370813}">
-  <dimension ref="F1:X4"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -983,212 +983,212 @@
     <col min="24" max="24" width="16.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" t="s">
+        <v>68</v>
+      </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="G1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H1" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="I1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="N1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="O1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="P1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="Q1" t="s">
-        <v>74</v>
-      </c>
-      <c r="R1" t="s">
-        <v>75</v>
+        <v>81</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="S1" t="s">
-        <v>76</v>
-      </c>
-      <c r="T1" t="s">
-        <v>79</v>
-      </c>
-      <c r="U1" t="s">
-        <v>80</v>
-      </c>
-      <c r="V1" t="s">
-        <v>81</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="X1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" t="s">
+        <v>85</v>
+      </c>
       <c r="F2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>90</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B3" t="s">
         <v>83</v>
       </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" t="s">
         <v>85</v>
       </c>
-      <c r="K2" t="s">
+      <c r="F3" t="s">
         <v>86</v>
       </c>
-      <c r="L2" t="s">
+      <c r="G3" t="s">
         <v>87</v>
       </c>
-      <c r="N2" t="s">
+      <c r="I3" t="s">
         <v>77</v>
       </c>
-      <c r="O2" t="s">
+      <c r="J3" t="s">
         <v>78</v>
       </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
         <v>77</v>
       </c>
-      <c r="R2" t="s">
+      <c r="M3" t="s">
         <v>78</v>
       </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
         <v>77</v>
       </c>
-      <c r="U2" t="s">
+      <c r="P3" t="s">
         <v>82</v>
       </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="6:24" x14ac:dyDescent="0.3">
-      <c r="F3" t="s">
+      <c r="Q3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>90</v>
       </c>
-      <c r="G3" t="s">
+      <c r="B4" t="s">
         <v>83</v>
       </c>
-      <c r="H3">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s">
-        <v>89</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" t="s">
         <v>85</v>
       </c>
-      <c r="K3" t="s">
+      <c r="F4" t="s">
         <v>86</v>
       </c>
-      <c r="L3" t="s">
+      <c r="G4" t="s">
         <v>87</v>
       </c>
-      <c r="N3" t="s">
+      <c r="I4" t="s">
         <v>77</v>
       </c>
-      <c r="O3" t="s">
+      <c r="J4" t="s">
         <v>78</v>
       </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
         <v>77</v>
       </c>
-      <c r="R3" t="s">
+      <c r="M4" t="s">
         <v>78</v>
       </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
-      <c r="T3" t="s">
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
         <v>77</v>
       </c>
-      <c r="U3" t="s">
+      <c r="P4" t="s">
         <v>82</v>
       </c>
-      <c r="V3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="6:24" x14ac:dyDescent="0.3">
-      <c r="F4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H4">
-        <v>30</v>
-      </c>
-      <c r="I4" t="s">
-        <v>92</v>
-      </c>
-      <c r="J4" t="s">
-        <v>85</v>
-      </c>
-      <c r="K4" t="s">
-        <v>86</v>
-      </c>
-      <c r="L4" t="s">
-        <v>87</v>
-      </c>
-      <c r="N4" t="s">
-        <v>77</v>
-      </c>
-      <c r="O4" t="s">
-        <v>78</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>77</v>
-      </c>
-      <c r="R4" t="s">
-        <v>78</v>
-      </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-      <c r="T4" t="s">
-        <v>77</v>
-      </c>
-      <c r="U4" t="s">
-        <v>82</v>
-      </c>
-      <c r="V4">
+      <c r="Q4">
         <v>1</v>
       </c>
     </row>

--- a/templates/QARSF/RSTK-9521-Consigned WO.xlsx
+++ b/templates/QARSF/RSTK-9521-Consigned WO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\QARSF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E722F47E-915F-40D7-9C6F-1482163679C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F1590F-F088-4B57-9F50-0271A91AA876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create WO" sheetId="1" r:id="rId1"/>
@@ -682,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="A1:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -751,7 +751,7 @@
         <v>9</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -772,7 +772,7 @@
         <v>9</v>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -949,10 +949,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F645892-6DEC-48BA-AEFF-9DA397370813}">
-  <dimension ref="A1:S4"/>
+  <dimension ref="F1:X4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:S4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -983,212 +983,212 @@
     <col min="24" max="24" width="16.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="6:24" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
         <v>65</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>66</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>67</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>68</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>69</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>70</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>84</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>71</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>72</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>73</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
         <v>74</v>
       </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
         <v>75</v>
       </c>
-      <c r="N1" t="s">
+      <c r="S1" t="s">
         <v>76</v>
       </c>
-      <c r="O1" t="s">
+      <c r="T1" t="s">
         <v>79</v>
       </c>
-      <c r="P1" t="s">
+      <c r="U1" t="s">
         <v>80</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="V1" t="s">
         <v>81</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="S1" t="s">
+      <c r="X1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="6:24" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
         <v>90</v>
       </c>
-      <c r="B2" t="s">
+      <c r="G2" t="s">
         <v>83</v>
       </c>
-      <c r="C2">
+      <c r="H2">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="I2" t="s">
         <v>88</v>
       </c>
-      <c r="E2" t="s">
+      <c r="J2" t="s">
         <v>85</v>
       </c>
-      <c r="F2" t="s">
+      <c r="K2" t="s">
         <v>86</v>
       </c>
-      <c r="G2" t="s">
+      <c r="L2" t="s">
         <v>87</v>
       </c>
-      <c r="I2" t="s">
+      <c r="N2" t="s">
         <v>77</v>
       </c>
-      <c r="J2" t="s">
+      <c r="O2" t="s">
         <v>78</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
         <v>77</v>
       </c>
-      <c r="M2" t="s">
+      <c r="R2" t="s">
         <v>78</v>
       </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s">
         <v>77</v>
       </c>
-      <c r="P2" t="s">
+      <c r="U2" t="s">
         <v>82</v>
       </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="V2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="6:24" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
         <v>90</v>
       </c>
-      <c r="B3" t="s">
+      <c r="G3" t="s">
         <v>83</v>
       </c>
-      <c r="C3">
+      <c r="H3">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
+      <c r="I3" t="s">
         <v>89</v>
       </c>
-      <c r="E3" t="s">
+      <c r="J3" t="s">
         <v>85</v>
       </c>
-      <c r="F3" t="s">
+      <c r="K3" t="s">
         <v>86</v>
       </c>
-      <c r="G3" t="s">
+      <c r="L3" t="s">
         <v>87</v>
       </c>
-      <c r="I3" t="s">
+      <c r="N3" t="s">
         <v>77</v>
       </c>
-      <c r="J3" t="s">
+      <c r="O3" t="s">
         <v>78</v>
       </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s">
         <v>77</v>
       </c>
-      <c r="M3" t="s">
+      <c r="R3" t="s">
         <v>78</v>
       </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s">
         <v>77</v>
       </c>
-      <c r="P3" t="s">
+      <c r="U3" t="s">
         <v>82</v>
       </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="V3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="6:24" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
         <v>90</v>
       </c>
-      <c r="B4" t="s">
+      <c r="G4" t="s">
         <v>83</v>
       </c>
-      <c r="C4">
+      <c r="H4">
         <v>30</v>
       </c>
-      <c r="D4" t="s">
+      <c r="I4" t="s">
         <v>92</v>
       </c>
-      <c r="E4" t="s">
+      <c r="J4" t="s">
         <v>85</v>
       </c>
-      <c r="F4" t="s">
+      <c r="K4" t="s">
         <v>86</v>
       </c>
-      <c r="G4" t="s">
+      <c r="L4" t="s">
         <v>87</v>
       </c>
-      <c r="I4" t="s">
+      <c r="N4" t="s">
         <v>77</v>
       </c>
-      <c r="J4" t="s">
+      <c r="O4" t="s">
         <v>78</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s">
         <v>77</v>
       </c>
-      <c r="M4" t="s">
+      <c r="R4" t="s">
         <v>78</v>
       </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s">
         <v>77</v>
       </c>
-      <c r="P4" t="s">
+      <c r="U4" t="s">
         <v>82</v>
       </c>
-      <c r="Q4">
+      <c r="V4">
         <v>1</v>
       </c>
     </row>
